--- a/data/trans_orig/P16A17-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Clase-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1265,7 +1265,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2006,7 +2006,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2747,7 +2747,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A17-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Clase-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>7241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3105</v>
+        <v>3018</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14464</v>
+        <v>14791</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02361179893825046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01012507129056131</v>
+        <v>0.009841606054153074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04716365349425374</v>
+        <v>0.04823098554634764</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>299439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>292216</v>
+        <v>291889</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>303575</v>
+        <v>303662</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9763882010617495</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9528363465057462</v>
+        <v>0.9517690144536524</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9898749287094386</v>
+        <v>0.9901583939458469</v>
       </c>
     </row>
     <row r="6">
@@ -865,19 +865,19 @@
         <v>6760</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3043</v>
+        <v>3085</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13195</v>
+        <v>14602</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009464184993446196</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004259553660646813</v>
+        <v>0.004318710373144598</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01847236274206652</v>
+        <v>0.02044249759029403</v>
       </c>
     </row>
     <row r="14">
@@ -894,19 +894,19 @@
         <v>707525</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>701090</v>
+        <v>699683</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>711242</v>
+        <v>711200</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9905358150065539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9815276372579342</v>
+        <v>0.979557502409706</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9957404463393533</v>
+        <v>0.9956812896268553</v>
       </c>
     </row>
     <row r="15">
@@ -956,19 +956,19 @@
         <v>3842</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9420</v>
+        <v>8862</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006755623874203453</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001732346144982002</v>
+        <v>0.001714423521947703</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01656195710838893</v>
+        <v>0.01558112759669036</v>
       </c>
     </row>
     <row r="17">
@@ -985,19 +985,19 @@
         <v>564910</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>559332</v>
+        <v>559890</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>567767</v>
+        <v>567777</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9932443761257965</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9834380428916111</v>
+        <v>0.9844188724033096</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.998267653855018</v>
+        <v>0.9982855764780523</v>
       </c>
     </row>
     <row r="18">
@@ -1047,19 +1047,19 @@
         <v>6245</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1947</v>
+        <v>2397</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13457</v>
+        <v>14031</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005004761491207347</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001560785488973894</v>
+        <v>0.001921076723916393</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01078466905525404</v>
+        <v>0.01124527924702452</v>
       </c>
     </row>
     <row r="20">
@@ -1076,19 +1076,19 @@
         <v>1241520</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1234308</v>
+        <v>1233734</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1245818</v>
+        <v>1245368</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9949952385087927</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9892153309447467</v>
+        <v>0.9887547207529751</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9984392145110261</v>
+        <v>0.9980789232760835</v>
       </c>
     </row>
     <row r="21">
@@ -1138,19 +1138,19 @@
         <v>24088</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15306</v>
+        <v>15674</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35439</v>
+        <v>35840</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007134640257409119</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004533473238911134</v>
+        <v>0.004642382758558081</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01049660353362925</v>
+        <v>0.0106153834600899</v>
       </c>
     </row>
     <row r="23">
@@ -1167,19 +1167,19 @@
         <v>3352178</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3340827</v>
+        <v>3340426</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3360960</v>
+        <v>3360592</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9928653597425909</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.989503396466371</v>
+        <v>0.9893846165399107</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9954665267610892</v>
+        <v>0.9953576172414419</v>
       </c>
     </row>
     <row r="24">
@@ -1349,19 +1349,19 @@
         <v>5224</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13694</v>
+        <v>14044</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01672355711368057</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006057810278636607</v>
+        <v>0.006071252233223856</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04383852531396687</v>
+        <v>0.04496149140070765</v>
       </c>
     </row>
     <row r="5">
@@ -1378,19 +1378,19 @@
         <v>307143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>298673</v>
+        <v>298323</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>310475</v>
+        <v>310471</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9832764428863194</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9561614746860325</v>
+        <v>0.9550385085992923</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9939421897213633</v>
+        <v>0.9939287477667761</v>
       </c>
     </row>
     <row r="6">
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6005</v>
+        <v>5691</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003130868604529398</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01796572360189294</v>
+        <v>0.01702604368527805</v>
       </c>
     </row>
     <row r="8">
@@ -1469,7 +1469,7 @@
         <v>333204</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>328245</v>
+        <v>328559</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>334250</v>
@@ -1478,7 +1478,7 @@
         <v>0.9968691313954706</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9820342763981074</v>
+        <v>0.9829739563147224</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1606,19 +1606,19 @@
         <v>5173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11553</v>
+        <v>11603</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006756277929500231</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002600522925809182</v>
+        <v>0.002599257904900538</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0150884122593202</v>
+        <v>0.01515463196770858</v>
       </c>
     </row>
     <row r="14">
@@ -1635,19 +1635,19 @@
         <v>760487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>754107</v>
+        <v>754057</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>763669</v>
+        <v>763670</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9932437220704998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9849115877406798</v>
+        <v>0.9848453680322915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9973994770741909</v>
+        <v>0.9974007420950995</v>
       </c>
     </row>
     <row r="15">
@@ -1697,19 +1697,19 @@
         <v>6204</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2894</v>
+        <v>2039</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12706</v>
+        <v>12561</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008180699688160214</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003815504096694843</v>
+        <v>0.002688779236755814</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01675464679141599</v>
+        <v>0.0165631460278983</v>
       </c>
     </row>
     <row r="17">
@@ -1726,19 +1726,19 @@
         <v>752164</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>745662</v>
+        <v>745807</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>755474</v>
+        <v>756329</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9918193003118397</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9832453532085833</v>
+        <v>0.9834368539721018</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.996184495903305</v>
+        <v>0.9973112207632442</v>
       </c>
     </row>
     <row r="18">
@@ -1788,19 +1788,19 @@
         <v>4043</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12020</v>
+        <v>11209</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003671377375055082</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0009264565953713506</v>
+        <v>0.0009303892226644616</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01091490873539451</v>
+        <v>0.01017846171210725</v>
       </c>
     </row>
     <row r="20">
@@ -1817,19 +1817,19 @@
         <v>1097164</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1089187</v>
+        <v>1089998</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1100187</v>
+        <v>1100182</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9963286226249449</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9890850912646052</v>
+        <v>0.9898215382878929</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9990735434046286</v>
+        <v>0.9990696107773355</v>
       </c>
     </row>
     <row r="21">
@@ -1879,19 +1879,19 @@
         <v>21690</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12287</v>
+        <v>12755</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33194</v>
+        <v>33573</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006146752243276061</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003482052676573384</v>
+        <v>0.003614562721343202</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009406802045109039</v>
+        <v>0.009514222630111806</v>
       </c>
     </row>
     <row r="23">
@@ -1908,19 +1908,19 @@
         <v>3507055</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3495551</v>
+        <v>3495172</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3516458</v>
+        <v>3515990</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9938532477567239</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9905931979548912</v>
+        <v>0.9904857773698881</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9965179473234267</v>
+        <v>0.9963854372786566</v>
       </c>
     </row>
     <row r="24">
@@ -2090,19 +2090,19 @@
         <v>3347</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8975</v>
+        <v>8959</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009643406202370402</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003106529973266132</v>
+        <v>0.003122674148288533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02585997269857953</v>
+        <v>0.02581496941123936</v>
       </c>
     </row>
     <row r="5">
@@ -2119,19 +2119,19 @@
         <v>343708</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>338080</v>
+        <v>338096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>345977</v>
+        <v>345971</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9903565937976296</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9741400273014205</v>
+        <v>0.9741850305887607</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9968934700267338</v>
+        <v>0.9968773258517115</v>
       </c>
     </row>
     <row r="6">
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7280</v>
+        <v>7153</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005452048463970973</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01955487373864841</v>
+        <v>0.01921503806335967</v>
       </c>
     </row>
     <row r="8">
@@ -2210,7 +2210,7 @@
         <v>370243</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>364993</v>
+        <v>365120</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>372273</v>
@@ -2219,7 +2219,7 @@
         <v>0.994547951536029</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9804451262613511</v>
+        <v>0.9807849619366398</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2347,19 +2347,19 @@
         <v>2980</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8034</v>
+        <v>8732</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003607733046304808</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001187689558985755</v>
+        <v>0.001183713782910526</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009728316638675655</v>
+        <v>0.01057261318137164</v>
       </c>
     </row>
     <row r="14">
@@ -2376,19 +2376,19 @@
         <v>822896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>817842</v>
+        <v>817144</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>824895</v>
+        <v>824898</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9963922669536952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9902716833613242</v>
+        <v>0.9894273868186275</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9988123104410143</v>
+        <v>0.9988162862170895</v>
       </c>
     </row>
     <row r="15">
@@ -2438,19 +2438,19 @@
         <v>3897</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9993</v>
+        <v>8916</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005278561442425177</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001493770222814026</v>
+        <v>0.001422898502851253</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01353588208978073</v>
+        <v>0.01207683195313881</v>
       </c>
     </row>
     <row r="17">
@@ -2467,19 +2467,19 @@
         <v>734347</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>728251</v>
+        <v>729328</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>737141</v>
+        <v>737194</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9947214385575748</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9864641179102193</v>
+        <v>0.987923168046861</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9985062297771859</v>
+        <v>0.9985771014971487</v>
       </c>
     </row>
     <row r="18">
@@ -2529,19 +2529,19 @@
         <v>5835</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2358</v>
+        <v>2183</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12981</v>
+        <v>13319</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005392884726858035</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002179703283086586</v>
+        <v>0.002017505202748733</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01199731842842306</v>
+        <v>0.01230902370465142</v>
       </c>
     </row>
     <row r="20">
@@ -2558,19 +2558,19 @@
         <v>1076190</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1069044</v>
+        <v>1068706</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1079667</v>
+        <v>1079842</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9946071152731419</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9880026815715771</v>
+        <v>0.9876909762953486</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9978202967169134</v>
+        <v>0.9979824947972513</v>
       </c>
     </row>
     <row r="21">
@@ -2620,19 +2620,19 @@
         <v>18088</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11786</v>
+        <v>10596</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29566</v>
+        <v>28218</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005121788231559794</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003337287792837762</v>
+        <v>0.003000411579354665</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.008371957400187893</v>
+        <v>0.007990202591260582</v>
       </c>
     </row>
     <row r="23">
@@ -2649,19 +2649,19 @@
         <v>3513508</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3502030</v>
+        <v>3503378</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3519810</v>
+        <v>3521000</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9948782117684402</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9916280425998121</v>
+        <v>0.9920097974087394</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9966627122071623</v>
+        <v>0.9969995884206453</v>
       </c>
     </row>
     <row r="24">
@@ -2831,19 +2831,19 @@
         <v>2629</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>721</v>
+        <v>676</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6474</v>
+        <v>5963</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.005390780974367378</v>
+        <v>0.005390780974367377</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001477968186105828</v>
+        <v>0.0013859736644201</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0132748499827784</v>
+        <v>0.01222691436540547</v>
       </c>
     </row>
     <row r="5">
@@ -2860,19 +2860,19 @@
         <v>485061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>481216</v>
+        <v>481727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>486969</v>
+        <v>487014</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9946092190256327</v>
+        <v>0.9946092190256325</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9867251500172218</v>
+        <v>0.9877730856345946</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9985220318138941</v>
+        <v>0.9986140263355799</v>
       </c>
     </row>
     <row r="6">
@@ -2922,19 +2922,19 @@
         <v>3397</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1300</v>
+        <v>1353</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7605</v>
+        <v>8226</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00802811432158008</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003071576838628708</v>
+        <v>0.003197015570805499</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01797322356710898</v>
+        <v>0.01944001580648041</v>
       </c>
     </row>
     <row r="8">
@@ -2951,19 +2951,19 @@
         <v>419746</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>415538</v>
+        <v>414917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>421843</v>
+        <v>421790</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.99197188567842</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9820267764328912</v>
+        <v>0.9805599841935198</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9969284231613713</v>
+        <v>0.9968029844291946</v>
       </c>
     </row>
     <row r="9">
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4409</v>
+        <v>4333</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006526175330416156</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02351507908685354</v>
+        <v>0.02310951699988402</v>
       </c>
     </row>
     <row r="11">
@@ -3042,7 +3042,7 @@
         <v>186273</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>183088</v>
+        <v>183164</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>187497</v>
@@ -3051,7 +3051,7 @@
         <v>0.9934738246695839</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9764849209131465</v>
+        <v>0.9768904830001166</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3104,19 +3104,19 @@
         <v>2628</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6834</v>
+        <v>7049</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003067781868798939</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0007951660772592003</v>
+        <v>0.001046791560413175</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007976960513564169</v>
+        <v>0.008228607567050648</v>
       </c>
     </row>
     <row r="14">
@@ -3133,19 +3133,19 @@
         <v>854057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>849851</v>
+        <v>849636</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>856004</v>
+        <v>855788</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9969322181312011</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9920230394864361</v>
+        <v>0.991771392432949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9992048339227407</v>
+        <v>0.9989532084395869</v>
       </c>
     </row>
     <row r="15">
@@ -3195,19 +3195,19 @@
         <v>6842</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3522</v>
+        <v>3302</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12354</v>
+        <v>12212</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.008241695520040485</v>
+        <v>0.008241695520040487</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004242702674969071</v>
+        <v>0.003977120484164882</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01488218895320086</v>
+        <v>0.01471105365134924</v>
       </c>
     </row>
     <row r="17">
@@ -3224,19 +3224,19 @@
         <v>823285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>817773</v>
+        <v>817915</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>826605</v>
+        <v>826825</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9917583044799596</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9851178110467992</v>
+        <v>0.9852889463486512</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9957572973250309</v>
+        <v>0.9960228795158352</v>
       </c>
     </row>
     <row r="18">
@@ -3289,16 +3289,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5398</v>
+        <v>4730</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.001799525774501542</v>
+        <v>0.001799525774501541</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.006403430611728658</v>
+        <v>0.005610523322950957</v>
       </c>
     </row>
     <row r="20">
@@ -3315,7 +3315,7 @@
         <v>841476</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>837595</v>
+        <v>838263</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>842993</v>
@@ -3324,7 +3324,7 @@
         <v>0.9982004742254984</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9935965693882715</v>
+        <v>0.9943894766770469</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3377,19 +3377,19 @@
         <v>18236</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12474</v>
+        <v>12130</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26581</v>
+        <v>26950</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.005026404354497801</v>
+        <v>0.005026404354497803</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003438199658965871</v>
+        <v>0.003343196646163281</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007326221320208329</v>
+        <v>0.007428061164146895</v>
       </c>
     </row>
     <row r="23">
@@ -3406,19 +3406,19 @@
         <v>3609899</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3601554</v>
+        <v>3601185</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3615661</v>
+        <v>3616005</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9949735956455024</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9926737786797917</v>
+        <v>0.9925719388358532</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9965618003410341</v>
+        <v>0.9966568033538369</v>
       </c>
     </row>
     <row r="24">
